--- a/data/fair_screen_template.xlsx
+++ b/data/fair_screen_template.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="18000" windowHeight="11790"/>
+    <workbookView xWindow="720" yWindow="360" windowWidth="18000" windowHeight="11790" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Stack_Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Dispersion_Factors" sheetId="2" r:id="rId2"/>
-    <sheet name="Emissions" sheetId="3" r:id="rId3"/>
+    <sheet name="Pollutant Reference" sheetId="5" r:id="rId1"/>
+    <sheet name="Stack Parameters" sheetId="1" r:id="rId2"/>
+    <sheet name="Dispersion Factors" sheetId="2" r:id="rId3"/>
+    <sheet name="Emissions" sheetId="3" r:id="rId4"/>
+    <sheet name="Air Concentrations (optional)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="742">
   <si>
     <t>Stack ID</t>
   </si>
@@ -76,6 +78,2172 @@
   </si>
   <si>
     <t>108-20-3</t>
+  </si>
+  <si>
+    <t>202-94-8</t>
+  </si>
+  <si>
+    <t>11H-Benz[b,c]aceanthrylene</t>
+  </si>
+  <si>
+    <t>202-98-2</t>
+  </si>
+  <si>
+    <t>4H-Cyclopenta[d,e,f]chrysene</t>
+  </si>
+  <si>
+    <t>75-07-0</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>60-35-5</t>
+  </si>
+  <si>
+    <t>Acetamide</t>
+  </si>
+  <si>
+    <t>64-19-7</t>
+  </si>
+  <si>
+    <t>Acetic Acid</t>
+  </si>
+  <si>
+    <t>75-86-5</t>
+  </si>
+  <si>
+    <t>Acetone Cyanohydrin</t>
+  </si>
+  <si>
+    <t>75-05-8</t>
+  </si>
+  <si>
+    <t>Acetonitrile</t>
+  </si>
+  <si>
+    <t>79-06-1</t>
+  </si>
+  <si>
+    <t>Acrylamide</t>
+  </si>
+  <si>
+    <t>79-10-7</t>
+  </si>
+  <si>
+    <t>Acrylic acid</t>
+  </si>
+  <si>
+    <t>107-13-1</t>
+  </si>
+  <si>
+    <t>Acrylonitrile</t>
+  </si>
+  <si>
+    <t>111-69-3</t>
+  </si>
+  <si>
+    <t>Adiponitrile</t>
+  </si>
+  <si>
+    <t>00-07-9</t>
+  </si>
+  <si>
+    <t>Aldehydes</t>
+  </si>
+  <si>
+    <t>309-00-2</t>
+  </si>
+  <si>
+    <t>Aldrin</t>
+  </si>
+  <si>
+    <t>VARIOUS</t>
+  </si>
+  <si>
+    <t>Aliphatic Hydrocarbon Streams (Midrange)</t>
+  </si>
+  <si>
+    <t>107-05-1</t>
+  </si>
+  <si>
+    <t>Allyl chloride</t>
+  </si>
+  <si>
+    <t>7429-90-5</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>117-79-3</t>
+  </si>
+  <si>
+    <t>Aminoanthraquinone, 2-</t>
+  </si>
+  <si>
+    <t>7664-41-7</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>75-85-4</t>
+  </si>
+  <si>
+    <t>Amyl Alcohol, tert-</t>
+  </si>
+  <si>
+    <t>62-53-3</t>
+  </si>
+  <si>
+    <t>Aniline</t>
+  </si>
+  <si>
+    <t>191-26-4</t>
+  </si>
+  <si>
+    <t>Anthanthrene</t>
+  </si>
+  <si>
+    <t>7440-36-0</t>
+  </si>
+  <si>
+    <t>Antimony</t>
+  </si>
+  <si>
+    <t>0-00-1</t>
+  </si>
+  <si>
+    <t>Antimony Compounds</t>
+  </si>
+  <si>
+    <t>1309-64-4</t>
+  </si>
+  <si>
+    <t>Antimony trioxide</t>
+  </si>
+  <si>
+    <t>140-57-8</t>
+  </si>
+  <si>
+    <t>Aramite</t>
+  </si>
+  <si>
+    <t>7440-38-2</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>0-00-2</t>
+  </si>
+  <si>
+    <t>Arsenic Compounds</t>
+  </si>
+  <si>
+    <t>1327-53-3</t>
+  </si>
+  <si>
+    <t>Arsenic Trioxide</t>
+  </si>
+  <si>
+    <t>7784-42-1</t>
+  </si>
+  <si>
+    <t>Arsine</t>
+  </si>
+  <si>
+    <t>123-77-3</t>
+  </si>
+  <si>
+    <t>Azodicarbonamide</t>
+  </si>
+  <si>
+    <t>199-54-2</t>
+  </si>
+  <si>
+    <t>Benz[e]aceanthrylene</t>
+  </si>
+  <si>
+    <t>202-33-5</t>
+  </si>
+  <si>
+    <t>Benz[j]aceanthryIene</t>
+  </si>
+  <si>
+    <t>211-91-6</t>
+  </si>
+  <si>
+    <t>Benz[l]aceanthryIene</t>
+  </si>
+  <si>
+    <t>100-52-7</t>
+  </si>
+  <si>
+    <t>Benzaldehyde</t>
+  </si>
+  <si>
+    <t>92-87-5</t>
+  </si>
+  <si>
+    <t>Benzidine</t>
+  </si>
+  <si>
+    <t>205-82-3</t>
+  </si>
+  <si>
+    <t>Benzo(j)fluoranthene</t>
+  </si>
+  <si>
+    <t>207-08-09</t>
+  </si>
+  <si>
+    <t>Benzo(k)fluoranthene</t>
+  </si>
+  <si>
+    <t>56-55-3</t>
+  </si>
+  <si>
+    <t>Benzo[a]anthracene</t>
+  </si>
+  <si>
+    <t>50-32-8</t>
+  </si>
+  <si>
+    <t>Benzo[a]pyrene</t>
+  </si>
+  <si>
+    <t>205-99-2</t>
+  </si>
+  <si>
+    <t>Benzo[b]fluoranthene</t>
+  </si>
+  <si>
+    <t>205-12-9</t>
+  </si>
+  <si>
+    <t>Benzo[c]fluorene</t>
+  </si>
+  <si>
+    <t>191-24-2</t>
+  </si>
+  <si>
+    <t>Benzo[g,h,i]perylene</t>
+  </si>
+  <si>
+    <t>100-44-7</t>
+  </si>
+  <si>
+    <t>Benzyl chloride</t>
+  </si>
+  <si>
+    <t>7440-41-7</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>0-00-3</t>
+  </si>
+  <si>
+    <t>Beryllium Compounds</t>
+  </si>
+  <si>
+    <t>92-52-4</t>
+  </si>
+  <si>
+    <t>Biphenyl, 1,1-</t>
+  </si>
+  <si>
+    <t>117-81-7</t>
+  </si>
+  <si>
+    <t>Bis(2-ethylhexyl)phthalate (DEHP)</t>
+  </si>
+  <si>
+    <t>542-88-1</t>
+  </si>
+  <si>
+    <t>Bis(chloromethyl)ether</t>
+  </si>
+  <si>
+    <t>10294-34-5</t>
+  </si>
+  <si>
+    <t>Boron Trichloride</t>
+  </si>
+  <si>
+    <t>108-86-1</t>
+  </si>
+  <si>
+    <t>Bromobenzene</t>
+  </si>
+  <si>
+    <t>74-97-5</t>
+  </si>
+  <si>
+    <t>Bromochloromethane</t>
+  </si>
+  <si>
+    <t>75-25-2</t>
+  </si>
+  <si>
+    <t>Bromoform</t>
+  </si>
+  <si>
+    <t>106-94-5</t>
+  </si>
+  <si>
+    <t>Bromopropane, 1-</t>
+  </si>
+  <si>
+    <t>106-99-0</t>
+  </si>
+  <si>
+    <t>Butadiene, 1,3-</t>
+  </si>
+  <si>
+    <t>71-36-3</t>
+  </si>
+  <si>
+    <t>Butanol</t>
+  </si>
+  <si>
+    <t>78-92-2</t>
+  </si>
+  <si>
+    <t>Butyl alcohol, sec-</t>
+  </si>
+  <si>
+    <t>111-76-2</t>
+  </si>
+  <si>
+    <t>Butyl Cellosolve (ethylene glycol monobutyl ether)</t>
+  </si>
+  <si>
+    <t>123-72-8</t>
+  </si>
+  <si>
+    <t>Butyraldehyde</t>
+  </si>
+  <si>
+    <t>7440-43-9</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>0-00-4</t>
+  </si>
+  <si>
+    <t>Cadmium Compounds</t>
+  </si>
+  <si>
+    <t>105-60-2</t>
+  </si>
+  <si>
+    <t>Caprolactum</t>
+  </si>
+  <si>
+    <t>75-15-0</t>
+  </si>
+  <si>
+    <t>Carbon disulfide</t>
+  </si>
+  <si>
+    <t>630-08-0</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>56-23-5</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>463-58-1</t>
+  </si>
+  <si>
+    <t>Carbonyl sulfide</t>
+  </si>
+  <si>
+    <t>111-15-9</t>
+  </si>
+  <si>
+    <t>Cellosolve Acetate (ethylene glycol monoethyl ether acetate)</t>
+  </si>
+  <si>
+    <t>1306-38-3</t>
+  </si>
+  <si>
+    <t>Cerium Oxide and Cerium Compounds</t>
+  </si>
+  <si>
+    <t>12789-03-6</t>
+  </si>
+  <si>
+    <t>Chlordane or (57-74-9)</t>
+  </si>
+  <si>
+    <t>108171-26-2</t>
+  </si>
+  <si>
+    <t>Chlorinated Paraffins (C12, 60% Chlorine)</t>
+  </si>
+  <si>
+    <t>7782-50-5</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>10049-04-4</t>
+  </si>
+  <si>
+    <t>Chlorine Oxide (CLO2)</t>
+  </si>
+  <si>
+    <t>75-68-3</t>
+  </si>
+  <si>
+    <t>Chloro-1,1-difluoroethane, 1- (HCFC-142b)</t>
+  </si>
+  <si>
+    <t>95-83-0</t>
+  </si>
+  <si>
+    <t>Chloro-o-phenylenediamine, 4-</t>
+  </si>
+  <si>
+    <t>95-69-2</t>
+  </si>
+  <si>
+    <t>Chloro-o-toluidine, p-</t>
+  </si>
+  <si>
+    <t>532-27-4</t>
+  </si>
+  <si>
+    <t>Chloroacetophenone, 2-</t>
+  </si>
+  <si>
+    <t>108-90-7</t>
+  </si>
+  <si>
+    <t>Chlorobenzene</t>
+  </si>
+  <si>
+    <t>98-56-6</t>
+  </si>
+  <si>
+    <t>Chlorobenzotrifluoride, 4-</t>
+  </si>
+  <si>
+    <t>75-45-6</t>
+  </si>
+  <si>
+    <t>Chlorodifluoromethane (HCFC-22)</t>
+  </si>
+  <si>
+    <t>67-66-3</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>88-73-3</t>
+  </si>
+  <si>
+    <t>Chloronitrobenzene, o-</t>
+  </si>
+  <si>
+    <t>100-00-5</t>
+  </si>
+  <si>
+    <t>Chloronitrobenzene, p-</t>
+  </si>
+  <si>
+    <t>76-06-2</t>
+  </si>
+  <si>
+    <t>Chloropicrin</t>
+  </si>
+  <si>
+    <t>126-99-8</t>
+  </si>
+  <si>
+    <t>Chloroprene</t>
+  </si>
+  <si>
+    <t>18540-29-9</t>
+  </si>
+  <si>
+    <t>Chromic acid mists and dissolved Cr(VI) aerosols</t>
+  </si>
+  <si>
+    <t>7440-47-3</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Chromium (Hexavalent) (particulate)</t>
+  </si>
+  <si>
+    <t>0-00-5</t>
+  </si>
+  <si>
+    <t>Chromium Compounds</t>
+  </si>
+  <si>
+    <t>218-01-9</t>
+  </si>
+  <si>
+    <t>Chrysene (Benzo(a)phenanthrene)</t>
+  </si>
+  <si>
+    <t>8007-45-2</t>
+  </si>
+  <si>
+    <t>Coal Tar</t>
+  </si>
+  <si>
+    <t>7440-48-4</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>0-00-7</t>
+  </si>
+  <si>
+    <t>Coke Oven Emissions</t>
+  </si>
+  <si>
+    <t>7440-50-8</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>00-03-1</t>
+  </si>
+  <si>
+    <t>Copper Compounds</t>
+  </si>
+  <si>
+    <t>120-71-8</t>
+  </si>
+  <si>
+    <t>Cresidine, p-</t>
+  </si>
+  <si>
+    <t>108-39-4</t>
+  </si>
+  <si>
+    <t>Cresol, m-</t>
+  </si>
+  <si>
+    <t>95-48-7</t>
+  </si>
+  <si>
+    <t>Cresol, o-</t>
+  </si>
+  <si>
+    <t>106-44-5</t>
+  </si>
+  <si>
+    <t>Cresol, p-</t>
+  </si>
+  <si>
+    <t>1319-77-3</t>
+  </si>
+  <si>
+    <t>Cresols/Cresylic acid (isomers and mixture)</t>
+  </si>
+  <si>
+    <t>98-82-8</t>
+  </si>
+  <si>
+    <t>Cumene</t>
+  </si>
+  <si>
+    <t>135-20-6</t>
+  </si>
+  <si>
+    <t>Cupferron</t>
+  </si>
+  <si>
+    <t>57-12-5</t>
+  </si>
+  <si>
+    <t>Cyanide (Cyanide ion, Inorganic cyanides, Isocyanide)</t>
+  </si>
+  <si>
+    <t>0-00-8</t>
+  </si>
+  <si>
+    <t>Cyanide Compounds</t>
+  </si>
+  <si>
+    <t>110-82-7</t>
+  </si>
+  <si>
+    <t>Cyclohexane</t>
+  </si>
+  <si>
+    <t>109-94-1</t>
+  </si>
+  <si>
+    <t>Cyclohexanone</t>
+  </si>
+  <si>
+    <t>27208-37-3</t>
+  </si>
+  <si>
+    <t>Cyclopenta[c,d]pyrene</t>
+  </si>
+  <si>
+    <t>50-29-3</t>
+  </si>
+  <si>
+    <t>DDT</t>
+  </si>
+  <si>
+    <t>615-05-4</t>
+  </si>
+  <si>
+    <t>Diaminoanisole, 2,4-</t>
+  </si>
+  <si>
+    <t>103-33-3</t>
+  </si>
+  <si>
+    <t>Diazene, Diphenyl</t>
+  </si>
+  <si>
+    <t>226-36-8</t>
+  </si>
+  <si>
+    <t>Dibenz(a,h)acridine</t>
+  </si>
+  <si>
+    <t>224-42-0</t>
+  </si>
+  <si>
+    <t>Dibenz(a,j)acridine</t>
+  </si>
+  <si>
+    <t>53-70-3</t>
+  </si>
+  <si>
+    <t>Dibenz[a,h]anthracene</t>
+  </si>
+  <si>
+    <t>192-65-4</t>
+  </si>
+  <si>
+    <t>Dibenzo(a,e)pyrene</t>
+  </si>
+  <si>
+    <t>189-64-0</t>
+  </si>
+  <si>
+    <t>Dibenzo(a,h)pyrene</t>
+  </si>
+  <si>
+    <t>191-30-0</t>
+  </si>
+  <si>
+    <t>Dibenzo(a,l)pyrene</t>
+  </si>
+  <si>
+    <t>194-59-2</t>
+  </si>
+  <si>
+    <t>Dibenzo(c,g)carbazole, 7H-</t>
+  </si>
+  <si>
+    <t>5385-75-1</t>
+  </si>
+  <si>
+    <t>Dibenzo[a,e]fluoranthene</t>
+  </si>
+  <si>
+    <t>189-55-9</t>
+  </si>
+  <si>
+    <t>Dibenzo[a,i]pyrene</t>
+  </si>
+  <si>
+    <t>96-12-8</t>
+  </si>
+  <si>
+    <t>Dibromo-3-chloropropane, 1,2-</t>
+  </si>
+  <si>
+    <t>764-41-0</t>
+  </si>
+  <si>
+    <t>Dichloro-2-butene, 1,4-</t>
+  </si>
+  <si>
+    <t>1476-11-5</t>
+  </si>
+  <si>
+    <t>Dichloro-2-butene, cis-1,4-</t>
+  </si>
+  <si>
+    <t>106-46-7</t>
+  </si>
+  <si>
+    <t>Dichlorobenzene(p), 1,4-</t>
+  </si>
+  <si>
+    <t>25321-22-6</t>
+  </si>
+  <si>
+    <t>Dichlorobenzenes</t>
+  </si>
+  <si>
+    <t>91-94-1</t>
+  </si>
+  <si>
+    <t>Dichlorobenzidene, 3,3-</t>
+  </si>
+  <si>
+    <t>75-71-8</t>
+  </si>
+  <si>
+    <t>Dichlorodifluoromethane (CFC-12)</t>
+  </si>
+  <si>
+    <t>111-44-4</t>
+  </si>
+  <si>
+    <t>Dichloroethyl ether (Bis(2-chloroethyl)ethe</t>
+  </si>
+  <si>
+    <t>75-35-4</t>
+  </si>
+  <si>
+    <t>Dichloroethylene (1,1-) (Vinylidene chloride)</t>
+  </si>
+  <si>
+    <t>156-60-5</t>
+  </si>
+  <si>
+    <t>Dichloroethylene, trans-1,2-</t>
+  </si>
+  <si>
+    <t>542-75-6</t>
+  </si>
+  <si>
+    <t>Dichloropropene, 1,3-</t>
+  </si>
+  <si>
+    <t>62-73-7</t>
+  </si>
+  <si>
+    <t>Dichlorvos</t>
+  </si>
+  <si>
+    <t>77-73-6</t>
+  </si>
+  <si>
+    <t>Dicyclopentadiene</t>
+  </si>
+  <si>
+    <t>60-57-1</t>
+  </si>
+  <si>
+    <t>Dieldrin</t>
+  </si>
+  <si>
+    <t>0-02-4</t>
+  </si>
+  <si>
+    <t>Diesel exhaust particulate</t>
+  </si>
+  <si>
+    <t>111-42-2</t>
+  </si>
+  <si>
+    <t>Diethanolamine</t>
+  </si>
+  <si>
+    <t>112-34-5</t>
+  </si>
+  <si>
+    <t>Diethylene Glycol Monobutyl Ether</t>
+  </si>
+  <si>
+    <t>111-90-0</t>
+  </si>
+  <si>
+    <t>Diethylene Glycol Monoethyl Ether</t>
+  </si>
+  <si>
+    <t>75-37-6</t>
+  </si>
+  <si>
+    <t>Difluoroethane, 1,1-</t>
+  </si>
+  <si>
+    <t>60-11-7</t>
+  </si>
+  <si>
+    <t>Dimethyl aminoazobenzene</t>
+  </si>
+  <si>
+    <t>68-12-2</t>
+  </si>
+  <si>
+    <t>Dimethyl formamide</t>
+  </si>
+  <si>
+    <t>108-01-0</t>
+  </si>
+  <si>
+    <t>Dimethylamino ethanol, 2-</t>
+  </si>
+  <si>
+    <t>57-97-6</t>
+  </si>
+  <si>
+    <t>Dimethylbenz[a]anthracene, 7,12-</t>
+  </si>
+  <si>
+    <t>57-14-7</t>
+  </si>
+  <si>
+    <t>Dimethylhydrazine, 1,1-</t>
+  </si>
+  <si>
+    <t>42397-64-8</t>
+  </si>
+  <si>
+    <t>Dinitropyrene, 1,6- (BaP)</t>
+  </si>
+  <si>
+    <t>42397-65-9</t>
+  </si>
+  <si>
+    <t>Dinitropyrene, 1,8- (BaP)</t>
+  </si>
+  <si>
+    <t>121-14-2</t>
+  </si>
+  <si>
+    <t>Dinitrotoluene, 2,4-</t>
+  </si>
+  <si>
+    <t>123-91-1</t>
+  </si>
+  <si>
+    <t>Dioxane, 1,4- (1,4-Diethylene dioxide)</t>
+  </si>
+  <si>
+    <t>122-66-7</t>
+  </si>
+  <si>
+    <t>Diphenylhydrazine, 1,2-</t>
+  </si>
+  <si>
+    <t>106-89-8</t>
+  </si>
+  <si>
+    <t>Epichlorohydrin (l-Chloro-2,3-epoxypropane)</t>
+  </si>
+  <si>
+    <t>106-88-7</t>
+  </si>
+  <si>
+    <t>Epoxybutane, 1,2-</t>
+  </si>
+  <si>
+    <t>67-17-5</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>110-80-5</t>
+  </si>
+  <si>
+    <t>Ethoxyethanol, 2- (ethylene glycol monoethyl ether)</t>
+  </si>
+  <si>
+    <t>141-78-6</t>
+  </si>
+  <si>
+    <t>Ethyl Acetate</t>
+  </si>
+  <si>
+    <t>140-88-5</t>
+  </si>
+  <si>
+    <t>Ethyl Acrylate</t>
+  </si>
+  <si>
+    <t>100-41-4</t>
+  </si>
+  <si>
+    <t>Ethyl benzene</t>
+  </si>
+  <si>
+    <t>51-79-6</t>
+  </si>
+  <si>
+    <t>Ethyl carbamate (Urethane)</t>
+  </si>
+  <si>
+    <t>75-00-3</t>
+  </si>
+  <si>
+    <t>Ethyl chloride (Chloroethane)</t>
+  </si>
+  <si>
+    <t>97-63-2</t>
+  </si>
+  <si>
+    <t>Ethyl Methacrylate</t>
+  </si>
+  <si>
+    <t>106-93-4</t>
+  </si>
+  <si>
+    <t>Ethylene dibromide (Dibromoethane)</t>
+  </si>
+  <si>
+    <t>107-06-2</t>
+  </si>
+  <si>
+    <t>Ethylene dichloride (1,2-Dichloroethane)</t>
+  </si>
+  <si>
+    <t>107-21-1</t>
+  </si>
+  <si>
+    <t>Ethylene glycol</t>
+  </si>
+  <si>
+    <t>75-21-8</t>
+  </si>
+  <si>
+    <t>Ethylene oxide</t>
+  </si>
+  <si>
+    <t>96-45-7</t>
+  </si>
+  <si>
+    <t>Ethylene thiourea</t>
+  </si>
+  <si>
+    <t>75-34-3</t>
+  </si>
+  <si>
+    <t>Ethylidene dichloride (1,1-Dichloroethane)</t>
+  </si>
+  <si>
+    <t>206-44-0</t>
+  </si>
+  <si>
+    <t>Fluoranthene</t>
+  </si>
+  <si>
+    <t>Fluorides (except hydrogen fluoride)</t>
+  </si>
+  <si>
+    <t>50-00-0</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>64-18-6</t>
+  </si>
+  <si>
+    <t>Formic Acid</t>
+  </si>
+  <si>
+    <t>64-16-6</t>
+  </si>
+  <si>
+    <t>98-01-0</t>
+  </si>
+  <si>
+    <t>Furfural</t>
+  </si>
+  <si>
+    <t>111-30-8</t>
+  </si>
+  <si>
+    <t>Glutaraldehyde</t>
+  </si>
+  <si>
+    <t>0-01-2</t>
+  </si>
+  <si>
+    <t>Glycol ethers</t>
+  </si>
+  <si>
+    <t>76-44-8</t>
+  </si>
+  <si>
+    <t>Heptachlor</t>
+  </si>
+  <si>
+    <t>1024-57-3</t>
+  </si>
+  <si>
+    <t>Heptachlor epoxide</t>
+  </si>
+  <si>
+    <t>35822-46-9</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzo-p-dioxin, 1,2,3,4,6,7,8-</t>
+  </si>
+  <si>
+    <t>00-08-5</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzodioxin, All Isomers</t>
+  </si>
+  <si>
+    <t>67562-39-4</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzofuran, 1,2,3,4,6,7,8-</t>
+  </si>
+  <si>
+    <t>55673-89-7</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzofuran, 1,2,3,4,7,8,9-</t>
+  </si>
+  <si>
+    <t>00-08-4</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzofuran, All Isomers</t>
+  </si>
+  <si>
+    <t>118-74-1</t>
+  </si>
+  <si>
+    <t>Hexachlorobenzene</t>
+  </si>
+  <si>
+    <t>87-68-3</t>
+  </si>
+  <si>
+    <t>Hexachlorobutadiene</t>
+  </si>
+  <si>
+    <t>608-73-1</t>
+  </si>
+  <si>
+    <t>Hexachlorocyclohexane (technical grade)</t>
+  </si>
+  <si>
+    <t>319-84-6</t>
+  </si>
+  <si>
+    <t>Hexachlorocyclohexane, alpha-</t>
+  </si>
+  <si>
+    <t>319-85-7</t>
+  </si>
+  <si>
+    <t>Hexachlorocyclohexane, beta-1,2,3,4,5,6-</t>
+  </si>
+  <si>
+    <t>77-47-4</t>
+  </si>
+  <si>
+    <t>Hexachlorocyclopentadiene</t>
+  </si>
+  <si>
+    <t>39227-28-6</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzo-p-dioxin, 1,2,3,4,7,8-</t>
+  </si>
+  <si>
+    <t>57653-85-7</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzo-p-dioxin, 1,2,3,6,7,8-</t>
+  </si>
+  <si>
+    <t>19408-74-3</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzo-p-dioxin, 1,2,3,7,8,9-</t>
+  </si>
+  <si>
+    <t>00-08-3</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzodioxins, All Isomers</t>
+  </si>
+  <si>
+    <t>70648-26-9</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzofuran, 1,2,3,4,7,8-</t>
+  </si>
+  <si>
+    <t>57117-44-9</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzofuran, 1,2,3,6,7,8-</t>
+  </si>
+  <si>
+    <t>72918-21-9</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzofuran, 1,2,3,7,8,9-</t>
+  </si>
+  <si>
+    <t>60851-34-5</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzofuran, 2,3,4,6,7,8-</t>
+  </si>
+  <si>
+    <t>00-08-2</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzofurans, All Isomers</t>
+  </si>
+  <si>
+    <t>67-72-1</t>
+  </si>
+  <si>
+    <t>Hexachloroethane</t>
+  </si>
+  <si>
+    <t>822-06-0</t>
+  </si>
+  <si>
+    <t>Hexamethylene-1,6-diisocyanate</t>
+  </si>
+  <si>
+    <t>110-54-3</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>591-78-6</t>
+  </si>
+  <si>
+    <t>Hexanone-2</t>
+  </si>
+  <si>
+    <t>302-01-2</t>
+  </si>
+  <si>
+    <t>Hydrazine</t>
+  </si>
+  <si>
+    <t>10034-93-2</t>
+  </si>
+  <si>
+    <t>Hydrazine sulfate</t>
+  </si>
+  <si>
+    <t>7647-01-0</t>
+  </si>
+  <si>
+    <t>Hydrochloric acid (hydrogen chloride)</t>
+  </si>
+  <si>
+    <t>74-90-8</t>
+  </si>
+  <si>
+    <t>Hydrogen cyanide</t>
+  </si>
+  <si>
+    <t>7664-39-3</t>
+  </si>
+  <si>
+    <t>Hydrogen fluoride (Hydrofluoric acid)</t>
+  </si>
+  <si>
+    <t>Hydrogen selenide</t>
+  </si>
+  <si>
+    <t>Hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>193-39-5</t>
+  </si>
+  <si>
+    <t>Indeno(1,2,3-cd)pyrene</t>
+  </si>
+  <si>
+    <t>121-51-3</t>
+  </si>
+  <si>
+    <t>Isoamyl</t>
+  </si>
+  <si>
+    <t>78-59-1</t>
+  </si>
+  <si>
+    <t>Isophorone</t>
+  </si>
+  <si>
+    <t>67-63-0</t>
+  </si>
+  <si>
+    <t>Isopropyl alcohol</t>
+  </si>
+  <si>
+    <t>50-21-5</t>
+  </si>
+  <si>
+    <t>Lactic Acid</t>
+  </si>
+  <si>
+    <t>7758-97-6</t>
+  </si>
+  <si>
+    <t>Lead Chromate</t>
+  </si>
+  <si>
+    <t>0-01-3</t>
+  </si>
+  <si>
+    <t>Lead Compounds</t>
+  </si>
+  <si>
+    <t>58-89-9</t>
+  </si>
+  <si>
+    <t>Lindane (all isomers)</t>
+  </si>
+  <si>
+    <t>00-07-8</t>
+  </si>
+  <si>
+    <t>m- and p-Xylenes</t>
+  </si>
+  <si>
+    <t>108-31-6</t>
+  </si>
+  <si>
+    <t>Maleic anhydride</t>
+  </si>
+  <si>
+    <t>7439-96-5</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>0-01-4</t>
+  </si>
+  <si>
+    <t>Manganese Compounds</t>
+  </si>
+  <si>
+    <t>1313-13-9</t>
+  </si>
+  <si>
+    <t>Manganese Dioxide</t>
+  </si>
+  <si>
+    <t>7439-97-6</t>
+  </si>
+  <si>
+    <t>Mercury (elemental)</t>
+  </si>
+  <si>
+    <t>0-02-3</t>
+  </si>
+  <si>
+    <t>Mercury Compounds</t>
+  </si>
+  <si>
+    <t>126-98-7</t>
+  </si>
+  <si>
+    <t>Methacrylonitrile</t>
+  </si>
+  <si>
+    <t>67-56-1</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>109-86-4</t>
+  </si>
+  <si>
+    <t>Methoxyethanol, 2- (ethylene glycol monomethyl ether EGME)</t>
+  </si>
+  <si>
+    <t>96-33-3</t>
+  </si>
+  <si>
+    <t>Methyl acrylate</t>
+  </si>
+  <si>
+    <t>74-83-9</t>
+  </si>
+  <si>
+    <t>Methyl bromide (Bromomethane)</t>
+  </si>
+  <si>
+    <t>110-49-6</t>
+  </si>
+  <si>
+    <t>Methyl Cellosolve Acetate</t>
+  </si>
+  <si>
+    <t>74-87-3</t>
+  </si>
+  <si>
+    <t>Methyl chloride (Chloromethane)</t>
+  </si>
+  <si>
+    <t>71-55-6</t>
+  </si>
+  <si>
+    <t>Methyl chloroform (1,1,1-Trichloroethane)</t>
+  </si>
+  <si>
+    <t>78-93-3</t>
+  </si>
+  <si>
+    <t>Methyl ethyl ketone (2-Butanone)</t>
+  </si>
+  <si>
+    <t>60-34-4</t>
+  </si>
+  <si>
+    <t>Methyl Hydrazine</t>
+  </si>
+  <si>
+    <t>108-10-1</t>
+  </si>
+  <si>
+    <t>Methyl isobutyl ketone (Hexone)</t>
+  </si>
+  <si>
+    <t>624-83-9</t>
+  </si>
+  <si>
+    <t>Methyl isocyanate</t>
+  </si>
+  <si>
+    <t>80-62-6</t>
+  </si>
+  <si>
+    <t>Methyl methacrylate</t>
+  </si>
+  <si>
+    <t>1634-04-4</t>
+  </si>
+  <si>
+    <t>Methyl tert butyl ether</t>
+  </si>
+  <si>
+    <t>56-49-5</t>
+  </si>
+  <si>
+    <t>Methylcholanthrene, 3-</t>
+  </si>
+  <si>
+    <t>3697-24-3</t>
+  </si>
+  <si>
+    <t>Methylchrysene, 5-</t>
+  </si>
+  <si>
+    <t>101-14-4</t>
+  </si>
+  <si>
+    <t>Methylene bis(2-chloroaniline), 4,4-</t>
+  </si>
+  <si>
+    <t>74-95-3</t>
+  </si>
+  <si>
+    <t>Methylene Bromide</t>
+  </si>
+  <si>
+    <t>75-09-2</t>
+  </si>
+  <si>
+    <t>Methylene chloride (Dichloromethane)</t>
+  </si>
+  <si>
+    <t>101-68-8</t>
+  </si>
+  <si>
+    <t>Methylene diphenyl diisocyanate (MDI)</t>
+  </si>
+  <si>
+    <t>101-77-9</t>
+  </si>
+  <si>
+    <t>Methylenedianiline, 4,4-</t>
+  </si>
+  <si>
+    <t>90-94-8</t>
+  </si>
+  <si>
+    <t>Michler's ketone</t>
+  </si>
+  <si>
+    <t>10595-95-6</t>
+  </si>
+  <si>
+    <t>N- Nitrosomethylethylamine</t>
+  </si>
+  <si>
+    <t>924-16-3</t>
+  </si>
+  <si>
+    <t>N-Nitrosodi-n-butylamine</t>
+  </si>
+  <si>
+    <t>621-64-7</t>
+  </si>
+  <si>
+    <t>N-Nitrosodi-n-propylamine</t>
+  </si>
+  <si>
+    <t>55-18-5</t>
+  </si>
+  <si>
+    <t>N-Nitrosodiethylamine</t>
+  </si>
+  <si>
+    <t>62-75-9</t>
+  </si>
+  <si>
+    <t>N-Nitrosodimethylamine</t>
+  </si>
+  <si>
+    <t>86-30-6</t>
+  </si>
+  <si>
+    <t>N-Nitrosodiphenylamine</t>
+  </si>
+  <si>
+    <t>59-89-2</t>
+  </si>
+  <si>
+    <t>N-Nitrosomorpholine</t>
+  </si>
+  <si>
+    <t>100-75-4</t>
+  </si>
+  <si>
+    <t>N-Nitrosopiperidine</t>
+  </si>
+  <si>
+    <t>111-84-2</t>
+  </si>
+  <si>
+    <t>N-Nonane</t>
+  </si>
+  <si>
+    <t>64724-95-6</t>
+  </si>
+  <si>
+    <t>Naphtha, High Flash Aromatic (HFAN)</t>
+  </si>
+  <si>
+    <t>91-20-3</t>
+  </si>
+  <si>
+    <t>Naphthalene</t>
+  </si>
+  <si>
+    <t>193-09-9</t>
+  </si>
+  <si>
+    <t>Naphtho[2,3-e]pyrene</t>
+  </si>
+  <si>
+    <t>7440-02-0</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>0-01-5</t>
+  </si>
+  <si>
+    <t>Nickel Compounds</t>
+  </si>
+  <si>
+    <t>1313-99-1</t>
+  </si>
+  <si>
+    <t>Nickel oxide</t>
+  </si>
+  <si>
+    <t>0-02-5</t>
+  </si>
+  <si>
+    <t>Nickel refinery dust from the pyrometallurgical process</t>
+  </si>
+  <si>
+    <t>12035-72-2</t>
+  </si>
+  <si>
+    <t>Nickel sulfide (NI3S2)</t>
+  </si>
+  <si>
+    <t>7697-37-2</t>
+  </si>
+  <si>
+    <t>Nitric acid</t>
+  </si>
+  <si>
+    <t>602-87-9</t>
+  </si>
+  <si>
+    <t>Nitroacenaphthene, 5-</t>
+  </si>
+  <si>
+    <t>88-74-4</t>
+  </si>
+  <si>
+    <t>Nitroaniline, 2-</t>
+  </si>
+  <si>
+    <t>100-01-6</t>
+  </si>
+  <si>
+    <t>Nitroaniline, 4-</t>
+  </si>
+  <si>
+    <t>98-95-3</t>
+  </si>
+  <si>
+    <t>Nitrobenzene</t>
+  </si>
+  <si>
+    <t>Nitrochrysene, 6-</t>
+  </si>
+  <si>
+    <t>607-57-8</t>
+  </si>
+  <si>
+    <t>Nitrofluorene, 2-</t>
+  </si>
+  <si>
+    <t>10102-44-0</t>
+  </si>
+  <si>
+    <t>Nitrogen oxide (NO2)</t>
+  </si>
+  <si>
+    <t>75-52-5</t>
+  </si>
+  <si>
+    <t>Nitromethane</t>
+  </si>
+  <si>
+    <t>79-46-9</t>
+  </si>
+  <si>
+    <t>Nitropropane, 2-</t>
+  </si>
+  <si>
+    <t>5522-43-0</t>
+  </si>
+  <si>
+    <t>Nitropyrene, 1-</t>
+  </si>
+  <si>
+    <t>57835-92-4</t>
+  </si>
+  <si>
+    <t>Nitropyrene, 4-</t>
+  </si>
+  <si>
+    <t>156-10-5</t>
+  </si>
+  <si>
+    <t>Nitrosodiphenylamine, p-</t>
+  </si>
+  <si>
+    <t>3268-87-9</t>
+  </si>
+  <si>
+    <t>Octachlorodibenzo-p-dioxin, 1,2,3,4,6,7,8,9-</t>
+  </si>
+  <si>
+    <t>39001-02-0</t>
+  </si>
+  <si>
+    <t>Octachlorodibenzofuran, 1,2,3,4,6,7,8,9-</t>
+  </si>
+  <si>
+    <t>10028-15-6</t>
+  </si>
+  <si>
+    <t>Ozone</t>
+  </si>
+  <si>
+    <t>74472-37-0</t>
+  </si>
+  <si>
+    <t>PCB 114 (2,3,4,4,5 Pentachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>31508-00-6</t>
+  </si>
+  <si>
+    <t>PCB 118 (2,3,4,4,5 Pentachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>65510-44-3</t>
+  </si>
+  <si>
+    <t>PCB 123 (2,3,4,4,5 Pentachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>57465-28-8</t>
+  </si>
+  <si>
+    <t>PCB 126 (3,3,4,4,5 Pentachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>38380-0804</t>
+  </si>
+  <si>
+    <t>PCB 156 (2,3,3,4,4,5 Hexachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>69782-90-7</t>
+  </si>
+  <si>
+    <t>PCB 157 (2,3,3,4,4,5 Hexachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>52663-72-6</t>
+  </si>
+  <si>
+    <t>PCB 167 (2,3,4,4,5,5 Hexachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>32774-16-6</t>
+  </si>
+  <si>
+    <t>PCB 169 (3,3,4,4,5,5 Hexachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>39635-31-9</t>
+  </si>
+  <si>
+    <t>PCB 189 (2,3,3,4,4,5,5 Heptachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>32598-13-3</t>
+  </si>
+  <si>
+    <t>PCB 77 (3,3,4,4-Tetrachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>70362-50-4</t>
+  </si>
+  <si>
+    <t>PCB 81 (3,4,4,5 Tetrachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>32598-14-4</t>
+  </si>
+  <si>
+    <t>PCB105 (2,3,3,4,4 Pentachlorobiphenyl)</t>
+  </si>
+  <si>
+    <t>40321-76-4</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzo-p-dioxin, 1,2,3,7,8-</t>
+  </si>
+  <si>
+    <t>00-08-1</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzodioxins, All Isomers</t>
+  </si>
+  <si>
+    <t>57117-41-6</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzofuran, 1,2,3,7,8-</t>
+  </si>
+  <si>
+    <t>57117-31-4</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzofuran, 2,3,4,7,8-</t>
+  </si>
+  <si>
+    <t>00-09-0</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzofurans, All Isomers</t>
+  </si>
+  <si>
+    <t>87-86-5</t>
+  </si>
+  <si>
+    <t>Pentachlorophenol</t>
+  </si>
+  <si>
+    <t>109-66-0</t>
+  </si>
+  <si>
+    <t>Pentane, n-</t>
+  </si>
+  <si>
+    <t>00-07-7</t>
+  </si>
+  <si>
+    <t>Petroleum Hydrocarbons, Aliphatic (C7 - C11)</t>
+  </si>
+  <si>
+    <t>85-01-8</t>
+  </si>
+  <si>
+    <t>Phenanthrene</t>
+  </si>
+  <si>
+    <t>108-95-2</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>75-44-5</t>
+  </si>
+  <si>
+    <t>Phosgene</t>
+  </si>
+  <si>
+    <t>7803-51-2</t>
+  </si>
+  <si>
+    <t>Phosphine</t>
+  </si>
+  <si>
+    <t>7664-38-2</t>
+  </si>
+  <si>
+    <t>Phosphoric acid</t>
+  </si>
+  <si>
+    <t>85-44-9</t>
+  </si>
+  <si>
+    <t>Phthalic anhydride</t>
+  </si>
+  <si>
+    <t>1336-36-3</t>
+  </si>
+  <si>
+    <t>Polychlorinated biphenyls (Aroclors unspeciated)</t>
+  </si>
+  <si>
+    <t>00-08-0</t>
+  </si>
+  <si>
+    <t>Polychlorinated Dibenzo-P-Dioxins And Furans, Total</t>
+  </si>
+  <si>
+    <t>00-05-0</t>
+  </si>
+  <si>
+    <t>Polychlorinated Dibenzodioxins, Total</t>
+  </si>
+  <si>
+    <t>00-05-1</t>
+  </si>
+  <si>
+    <t>Polychlorinated Dibenzofurans, Total</t>
+  </si>
+  <si>
+    <t>130498-29-2</t>
+  </si>
+  <si>
+    <t>Polycyclic Aromatic Hydrocarbons (PAH)</t>
+  </si>
+  <si>
+    <t>00-01-7</t>
+  </si>
+  <si>
+    <t>Polycyclic Organic Matter (POM)</t>
+  </si>
+  <si>
+    <t>9016-87-9</t>
+  </si>
+  <si>
+    <t>Polymeric diphenylmethane diisocyanate</t>
+  </si>
+  <si>
+    <t>Potassium bromate</t>
+  </si>
+  <si>
+    <t>1120-71-4</t>
+  </si>
+  <si>
+    <t>Propane sultone, 1,3-</t>
+  </si>
+  <si>
+    <t>71-23-8</t>
+  </si>
+  <si>
+    <t>Propanol</t>
+  </si>
+  <si>
+    <t>123-38-6</t>
+  </si>
+  <si>
+    <t>Propionaldehyde</t>
+  </si>
+  <si>
+    <t>79-09-4</t>
+  </si>
+  <si>
+    <t>Propionic Acid</t>
+  </si>
+  <si>
+    <t>128-38-6</t>
+  </si>
+  <si>
+    <t>Proprionaldehyde</t>
+  </si>
+  <si>
+    <t>115-07-1</t>
+  </si>
+  <si>
+    <t>Propylene</t>
+  </si>
+  <si>
+    <t>78-87-5</t>
+  </si>
+  <si>
+    <t>Propylene dichloride (1,2-Dichloropropane)</t>
+  </si>
+  <si>
+    <t>107-98-2</t>
+  </si>
+  <si>
+    <t>Propylene Glycol Monomethyl Ether</t>
+  </si>
+  <si>
+    <t>75-56-9</t>
+  </si>
+  <si>
+    <t>Propylene oxide</t>
+  </si>
+  <si>
+    <t>930-55-2</t>
+  </si>
+  <si>
+    <t>Pyrrolidine, 1-Nitroso-</t>
+  </si>
+  <si>
+    <t>7782-49-2</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>0-01-9</t>
+  </si>
+  <si>
+    <t>Selenium Compounds</t>
+  </si>
+  <si>
+    <t>7631-86-9</t>
+  </si>
+  <si>
+    <t>Silica (crystalline, respirable, PM4)</t>
+  </si>
+  <si>
+    <t>1310-73-2</t>
+  </si>
+  <si>
+    <t>Sodium hydroxide</t>
+  </si>
+  <si>
+    <t>Strontium chromate</t>
+  </si>
+  <si>
+    <t>100-42-5</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>14808-79-8</t>
+  </si>
+  <si>
+    <t>Sulfates</t>
+  </si>
+  <si>
+    <t>126-33-0</t>
+  </si>
+  <si>
+    <t>Sulfolane</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>7664-93-9</t>
+  </si>
+  <si>
+    <t>Sulfuric acid (aerosol forms only)</t>
+  </si>
+  <si>
+    <t>8014-95-7</t>
+  </si>
+  <si>
+    <t>Sulfuric Acid mixture w. sulfur trioxide (oleum)</t>
+  </si>
+  <si>
+    <t>00-09-1</t>
+  </si>
+  <si>
+    <t>TCDD Eqivalents, 2,3,7,8-</t>
+  </si>
+  <si>
+    <t>1746-01-6</t>
+  </si>
+  <si>
+    <t>Tetrachlorodibenzo-p-dioxin, 2,3,7,8-</t>
+  </si>
+  <si>
+    <t>00-08-8</t>
+  </si>
+  <si>
+    <t>Tetrachlorodibenzodioxins, All Isomers</t>
+  </si>
+  <si>
+    <t>51207-31-9</t>
+  </si>
+  <si>
+    <t>Tetrachlorodibenzofuran, 2,3,7,8-</t>
+  </si>
+  <si>
+    <t>00-08-6</t>
+  </si>
+  <si>
+    <t>Tetrachlorodibenzofurans, All Isomers</t>
+  </si>
+  <si>
+    <t>630-20-6</t>
+  </si>
+  <si>
+    <t>Tetrachloroethane, 1,1,1,2-</t>
+  </si>
+  <si>
+    <t>79-34-5</t>
+  </si>
+  <si>
+    <t>Tetrachloroethane, 1,1,2,2-</t>
+  </si>
+  <si>
+    <t>127-18-4</t>
+  </si>
+  <si>
+    <t>Tetrachloroethylene (Perchloroethylene)</t>
+  </si>
+  <si>
+    <t>811-97-2</t>
+  </si>
+  <si>
+    <t>Tetrafluoroethane, 1,1,1,2-</t>
+  </si>
+  <si>
+    <t>109-99-9</t>
+  </si>
+  <si>
+    <t>Tetrahydrofuran</t>
+  </si>
+  <si>
+    <t>62-55-5</t>
+  </si>
+  <si>
+    <t>Thioacetamide</t>
+  </si>
+  <si>
+    <t>108-88-3</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>91-08-7</t>
+  </si>
+  <si>
+    <t>Toluene-2,6-diisocyanate</t>
+  </si>
+  <si>
+    <t>95-80-7</t>
+  </si>
+  <si>
+    <t>Toluene diamine, 2,4-</t>
+  </si>
+  <si>
+    <t>584-84-9</t>
+  </si>
+  <si>
+    <t>Toluene diisocyanate, 2,4-</t>
+  </si>
+  <si>
+    <t>26471-62-5</t>
+  </si>
+  <si>
+    <t>Toluenediisocyanate (mixed isomers)</t>
+  </si>
+  <si>
+    <t>8001-35-2</t>
+  </si>
+  <si>
+    <t>Toxaphene (chlorinated camphene)</t>
+  </si>
+  <si>
+    <t>120-82-1</t>
+  </si>
+  <si>
+    <t>Trichlorobenzene, 1,2,4-</t>
+  </si>
+  <si>
+    <t>79-00-5</t>
+  </si>
+  <si>
+    <t>Trichloroethane, 1,1,2-</t>
+  </si>
+  <si>
+    <t>79-01-6</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>75-69-4</t>
+  </si>
+  <si>
+    <t>Trichlorofluoromethane (CFC-11)</t>
+  </si>
+  <si>
+    <t>88-06-2</t>
+  </si>
+  <si>
+    <t>Trichlorophenol, 2,4,6-</t>
+  </si>
+  <si>
+    <t>96-18-4</t>
+  </si>
+  <si>
+    <t>Trichloropropane, 1,2,3-</t>
+  </si>
+  <si>
+    <t>96-19-5</t>
+  </si>
+  <si>
+    <t>Trichloropropene, 1,2,3-</t>
+  </si>
+  <si>
+    <t>121-44-8</t>
+  </si>
+  <si>
+    <t>Triethylamine</t>
+  </si>
+  <si>
+    <t>526-73-8</t>
+  </si>
+  <si>
+    <t>Trimethylbenzene, 1,2,3-</t>
+  </si>
+  <si>
+    <t>95-63-6</t>
+  </si>
+  <si>
+    <t>Trimethylbenzene, 1,2,4-</t>
+  </si>
+  <si>
+    <t>1314-62-1</t>
+  </si>
+  <si>
+    <t>Vanadium Pentoxide, (V2O5)</t>
+  </si>
+  <si>
+    <t>108-05-4</t>
+  </si>
+  <si>
+    <t>Vinyl acetate</t>
+  </si>
+  <si>
+    <t>593-60-2</t>
+  </si>
+  <si>
+    <t>Vinyl bromide</t>
+  </si>
+  <si>
+    <t>75-01-4</t>
+  </si>
+  <si>
+    <t>Vinyl chloride</t>
+  </si>
+  <si>
+    <t>1330-20-7</t>
+  </si>
+  <si>
+    <t>Xylenes</t>
+  </si>
+  <si>
+    <t>108-38-3</t>
+  </si>
+  <si>
+    <t>Xylenes, m-</t>
+  </si>
+  <si>
+    <t>95-47-6</t>
+  </si>
+  <si>
+    <t>Xylenes, o-</t>
+  </si>
+  <si>
+    <t>106-42-3</t>
+  </si>
+  <si>
+    <t>Xylenes, p-</t>
+  </si>
+  <si>
+    <t>13530-65-9</t>
+  </si>
+  <si>
+    <t>Zinc chromate</t>
+  </si>
+  <si>
+    <t>1-Hour Max (ug/m3)</t>
+  </si>
+  <si>
+    <t>Monthly Max (ug/m3)</t>
+  </si>
+  <si>
+    <t>Annual Max (ug/m3)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +2285,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +2301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +2352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -223,6 +2397,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +2709,2991 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B370"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" s="5">
+        <v>2148909</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="5">
+        <v>2148878</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B268" s="5">
+        <v>2043937</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B312" s="5">
+        <v>2139594</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B327" s="5">
+        <v>2151068</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B331" s="5">
+        <v>2025884</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="5"/>
+      <c r="B370" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,7 +5703,7 @@
     <col min="3" max="3" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,12 +5741,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,12 +5807,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +5827,7 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -806,6 +5977,82 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20">
+        <v>22</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4</v>
+      </c>
+      <c r="E3" s="20">
         <v>2</v>
       </c>
     </row>
